--- a/Experiment/Ch2R_Log/result/结果-20170411/结果汇总-20170411(按对话段分训练和测试).xlsx
+++ b/Experiment/Ch2R_Log/result/结果-20170411/结果汇总-20170411(按对话段分训练和测试).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13650" tabRatio="993"/>
+    <workbookView windowWidth="28695" windowHeight="13275" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="统计情况-194段对话" sheetId="1" r:id="rId1"/>
@@ -189,12 +189,19 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>ID</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>话语的训练和测试集</t>
@@ -258,6 +265,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>146</t>
     </r>
     <r>
@@ -265,6 +279,7 @@
         <b/>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>段对话</t>
@@ -272,6 +287,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>34</t>
     </r>
     <r>
@@ -279,6 +301,7 @@
         <b/>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>段对话</t>
@@ -388,6 +411,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
       <t>RF(BOC_Rule)-- id_ood  -614</t>
     </r>
     <r>
@@ -395,6 +425,7 @@
         <b/>
         <sz val="13"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
       <t>个特征</t>
@@ -454,6 +485,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
       <t>RF(BOC)-- id_ood  - 593</t>
     </r>
     <r>
@@ -461,6 +499,7 @@
         <b/>
         <sz val="13"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
       <t>个特征</t>
@@ -477,6 +516,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
       <t>RF(BOC_Rule)-- id  -21</t>
     </r>
     <r>
@@ -484,6 +530,7 @@
         <b/>
         <sz val="13"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
       <t>个特征</t>
@@ -507,12 +554,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="46">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -666,14 +713,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -681,24 +720,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,10 +742,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -734,19 +766,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -758,29 +790,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -801,6 +811,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
@@ -811,17 +858,13 @@
       <b/>
       <sz val="13"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <charset val="134"/>
     </font>
     <font>
@@ -833,6 +876,7 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -893,7 +937,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,7 +949,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,73 +985,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1007,7 +997,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,7 +1027,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,19 +1039,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,13 +1075,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1217,21 +1261,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1297,15 +1326,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1314,162 +1334,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="35" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1582,7 +1626,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1601,32 +1644,12 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1639,12 +1662,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1665,8 +1682,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="5" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2014,7 +2029,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12"/>
@@ -2033,28 +2048,28 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="D1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="E1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="G1" s="78" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="79" t="s">
         <v>6</v>
       </c>
       <c r="B2">
@@ -2062,16 +2077,16 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="79" t="s">
         <v>7</v>
       </c>
       <c r="B3">
         <v>14</v>
       </c>
-      <c r="I3" s="92"/>
+      <c r="I3" s="79"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="79" t="s">
         <v>8</v>
       </c>
       <c r="B4">
@@ -2092,36 +2107,36 @@
       <c r="G4">
         <v>1143</v>
       </c>
-      <c r="I4" s="92"/>
+      <c r="I4" s="79"/>
     </row>
     <row r="5" spans="9:9">
-      <c r="I5" s="92"/>
+      <c r="I5" s="79"/>
     </row>
     <row r="6" spans="9:9">
-      <c r="I6" s="92"/>
+      <c r="I6" s="79"/>
     </row>
     <row r="7" spans="9:9">
-      <c r="I7" s="92"/>
+      <c r="I7" s="79"/>
     </row>
     <row r="8" ht="13.5" spans="1:9">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="92"/>
+      <c r="I8" s="79"/>
     </row>
     <row r="9" ht="13.5" spans="1:3">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="81" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="79" t="s">
         <v>13</v>
       </c>
       <c r="B10">
@@ -2132,7 +2147,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="79" t="s">
         <v>14</v>
       </c>
       <c r="B11">
@@ -2143,7 +2158,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="92" t="s">
+      <c r="A12" s="79" t="s">
         <v>15</v>
       </c>
       <c r="B12">
@@ -2154,7 +2169,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="79" t="s">
         <v>16</v>
       </c>
       <c r="B13">
@@ -2165,7 +2180,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="92" t="s">
+      <c r="A14" s="79" t="s">
         <v>17</v>
       </c>
       <c r="B14">
@@ -2176,7 +2191,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="79" t="s">
         <v>18</v>
       </c>
       <c r="B15">
@@ -2187,37 +2202,37 @@
       </c>
     </row>
     <row r="16" spans="7:8">
-      <c r="G16" s="94" t="s">
+      <c r="G16" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="94" t="s">
+      <c r="H16" s="81" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:1">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="77" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="94" t="s">
+      <c r="A18" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="94" t="s">
+      <c r="B18" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="92" t="s">
+      <c r="C18" s="79" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="95" t="s">
+      <c r="B19" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="92"/>
+      <c r="C19" s="79"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
@@ -2226,7 +2241,7 @@
       <c r="B20" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="92"/>
+      <c r="C20" s="79"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
@@ -2243,7 +2258,7 @@
       <c r="B22" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="94"/>
+      <c r="C22" s="81"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
@@ -2252,8 +2267,8 @@
       <c r="B23" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
@@ -2262,145 +2277,145 @@
       <c r="B24" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="96" t="s">
+      <c r="C24" s="83" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="97">
+      <c r="A25" s="81">
         <v>1276</v>
       </c>
-      <c r="B25" s="97">
+      <c r="B25" s="81">
         <v>318</v>
       </c>
-      <c r="C25" s="97">
+      <c r="C25" s="81">
         <f>B25/(A25+B25)</f>
         <v>0.199498117942284</v>
       </c>
     </row>
     <row r="26" spans="8:9">
-      <c r="H26" s="100" t="s">
+      <c r="H26" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="100"/>
+      <c r="I26" s="85"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="94" t="s">
+      <c r="A27" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="94" t="s">
+      <c r="C27" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="94" t="s">
+      <c r="D27" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="94" t="s">
+      <c r="E27" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="94" t="s">
+      <c r="F27" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="G27" s="94" t="s">
+      <c r="G27" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="94" t="s">
+      <c r="H27" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="I27" s="94" t="s">
+      <c r="I27" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="K27" s="94" t="s">
+      <c r="K27" s="81" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="28" ht="13.5" spans="1:11">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="79" t="s">
         <v>47</v>
       </c>
       <c r="B28" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="98">
+      <c r="C28" s="75">
         <v>2106</v>
       </c>
-      <c r="D28" s="98">
+      <c r="D28" s="75">
         <v>394</v>
       </c>
-      <c r="E28" s="92" t="s">
+      <c r="E28" s="79" t="s">
         <v>49</v>
       </c>
       <c r="F28" t="s">
         <v>50</v>
       </c>
-      <c r="G28" s="85">
+      <c r="G28" s="72">
         <v>0.7987365795</v>
       </c>
-      <c r="H28" s="82">
+      <c r="H28" s="67">
         <v>0.8167140827</v>
       </c>
-      <c r="I28" s="85">
+      <c r="I28" s="72">
         <v>321</v>
       </c>
-      <c r="K28" s="105" t="s">
+      <c r="K28" s="90" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" s="87" customFormat="1" ht="13.5" spans="1:11">
-      <c r="A29" s="99" t="s">
+    <row r="29" s="74" customFormat="1" ht="13.5" spans="1:11">
+      <c r="A29" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="99" t="s">
+      <c r="B29" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="99">
+      <c r="C29" s="84">
         <v>2106</v>
       </c>
-      <c r="D29" s="99">
+      <c r="D29" s="84">
         <v>394</v>
       </c>
-      <c r="E29" s="101" t="s">
+      <c r="E29" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="99" t="s">
+      <c r="F29" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="G29" s="102">
+      <c r="G29" s="87">
         <v>0.8205702784</v>
       </c>
-      <c r="H29" s="99">
+      <c r="H29" s="84">
         <v>0.895081967213114</v>
       </c>
-      <c r="I29" s="99">
+      <c r="I29" s="84">
         <v>350</v>
       </c>
-      <c r="J29" s="106">
+      <c r="J29" s="91">
         <f>I29</f>
         <v>350</v>
       </c>
-      <c r="K29" s="107" t="s">
+      <c r="K29" s="92" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" s="88" customFormat="1" ht="13.5" spans="1:11">
-      <c r="A30" s="88" t="s">
+    <row r="30" s="75" customFormat="1" ht="13.5" spans="1:11">
+      <c r="A30" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="88" t="s">
+      <c r="B30" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="88">
+      <c r="C30" s="75">
         <v>830</v>
       </c>
-      <c r="D30" s="88">
+      <c r="D30" s="75">
         <v>76</v>
       </c>
-      <c r="E30" s="103" t="s">
+      <c r="E30" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="88" t="s">
+      <c r="F30" s="75" t="s">
         <v>50</v>
       </c>
       <c r="G30" s="23">
@@ -2412,109 +2427,109 @@
       <c r="I30" s="23">
         <v>63</v>
       </c>
-      <c r="J30" s="108"/>
-      <c r="K30" s="109" t="s">
+      <c r="J30" s="93"/>
+      <c r="K30" s="94" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" s="89" customFormat="1" ht="13.5" spans="1:11">
-      <c r="A31" s="89" t="s">
+    <row r="31" s="76" customFormat="1" ht="13.5" spans="1:11">
+      <c r="A31" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="89" t="s">
+      <c r="B31" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="89">
+      <c r="C31" s="76">
         <v>830</v>
       </c>
-      <c r="D31" s="89">
+      <c r="D31" s="76">
         <v>76</v>
       </c>
-      <c r="E31" s="104" t="s">
+      <c r="E31" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="F31" s="89" t="s">
+      <c r="F31" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="G31" s="89">
+      <c r="G31" s="76">
         <v>0.748204</v>
       </c>
-      <c r="H31" s="89">
+      <c r="H31" s="76">
         <v>0.868421</v>
       </c>
-      <c r="I31" s="110">
+      <c r="I31" s="95">
         <v>66</v>
       </c>
-      <c r="J31" s="111">
+      <c r="J31" s="96">
         <f>I31+I32</f>
         <v>370</v>
       </c>
-      <c r="K31" s="112" t="s">
+      <c r="K31" s="97" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" s="89" customFormat="1" ht="13.5" spans="1:11">
-      <c r="A32" s="89" t="s">
+    <row r="32" s="76" customFormat="1" ht="13.5" spans="1:11">
+      <c r="A32" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="89" t="s">
+      <c r="B32" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="89">
+      <c r="C32" s="76">
         <v>1276</v>
       </c>
-      <c r="D32" s="89">
+      <c r="D32" s="76">
         <v>318</v>
       </c>
-      <c r="E32" s="104" t="s">
+      <c r="E32" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="F32" s="89" t="s">
+      <c r="F32" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="G32" s="68">
+      <c r="G32" s="54">
         <v>0.9559748428</v>
       </c>
-      <c r="H32" s="68">
+      <c r="H32" s="54">
         <v>0.9647371813</v>
       </c>
-      <c r="I32" s="68">
+      <c r="I32" s="54">
         <v>304</v>
       </c>
-      <c r="J32" s="111"/>
-      <c r="K32" s="112" t="s">
+      <c r="J32" s="96"/>
+      <c r="K32" s="97" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" s="88" customFormat="1" ht="13.5" spans="1:11">
-      <c r="A33" s="88" t="s">
+    <row r="33" s="75" customFormat="1" ht="13.5" spans="1:11">
+      <c r="A33" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="88" t="s">
+      <c r="B33" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="88">
+      <c r="C33" s="75">
         <v>914</v>
       </c>
-      <c r="D33" s="88">
+      <c r="D33" s="75">
         <v>229</v>
       </c>
-      <c r="E33" s="103" t="s">
+      <c r="E33" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="F33" s="88" t="s">
+      <c r="F33" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="G33" s="82">
+      <c r="G33" s="67">
         <v>0.9663058087</v>
       </c>
-      <c r="H33" s="82">
+      <c r="H33" s="67">
         <v>0.9371069182</v>
       </c>
       <c r="I33" s="23">
         <v>298</v>
       </c>
-      <c r="K33" s="109" t="s">
+      <c r="K33" s="94" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2569,7 +2584,7 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.1" customHeight="1" spans="1:21">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>61</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -2731,50 +2746,50 @@
       <c r="W4" s="44"/>
       <c r="X4" s="43"/>
     </row>
-    <row r="5" s="76" customFormat="1" spans="1:21">
-      <c r="A5" s="77">
+    <row r="5" s="65" customFormat="1" spans="1:21">
+      <c r="A5" s="66">
         <v>6</v>
       </c>
-      <c r="B5" s="78">
+      <c r="B5" s="67">
         <v>200</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="82">
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="67">
         <v>0.9933523267</v>
       </c>
-      <c r="F5" s="82">
+      <c r="F5" s="67">
         <v>350</v>
       </c>
-      <c r="G5" s="82">
+      <c r="G5" s="67">
         <v>0.8883248731</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="82">
+      <c r="H5" s="69"/>
+      <c r="I5" s="67">
         <v>0.8570616111</v>
       </c>
-      <c r="J5" s="80"/>
-      <c r="K5" s="82">
+      <c r="J5" s="69"/>
+      <c r="K5" s="67">
         <v>0.993594306</v>
       </c>
-      <c r="L5" s="80"/>
-      <c r="M5" s="82">
+      <c r="L5" s="69"/>
+      <c r="M5" s="67">
         <v>0.8516405136</v>
       </c>
-      <c r="N5" s="80"/>
-      <c r="O5" s="82">
+      <c r="N5" s="69"/>
+      <c r="O5" s="67">
         <v>0.9943060498</v>
       </c>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="82">
+      <c r="P5" s="69"/>
+      <c r="Q5" s="67">
         <v>0.8530670471</v>
       </c>
-      <c r="R5" s="80"/>
-      <c r="S5" s="82">
+      <c r="R5" s="69"/>
+      <c r="S5" s="67">
         <v>0.9942938659</v>
       </c>
-      <c r="T5" s="80"/>
-      <c r="U5" s="82">
+      <c r="T5" s="69"/>
+      <c r="U5" s="67">
         <v>0.8664772727</v>
       </c>
     </row>
@@ -2787,41 +2802,41 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="69">
+      <c r="E6" s="22">
         <v>0.9933523267</v>
       </c>
-      <c r="F6" s="69">
+      <c r="F6" s="22">
         <v>352</v>
       </c>
-      <c r="G6" s="69">
+      <c r="G6" s="22">
         <v>0.8934010152</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="69">
+      <c r="I6" s="22">
         <v>0.8542125967</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="69">
+      <c r="K6" s="22">
         <v>0.993594306</v>
       </c>
       <c r="L6" s="6"/>
-      <c r="M6" s="69">
+      <c r="M6" s="22">
         <v>0.847360913</v>
       </c>
       <c r="N6" s="6"/>
-      <c r="O6" s="69">
+      <c r="O6" s="22">
         <v>0.9943060498</v>
       </c>
       <c r="P6" s="6"/>
-      <c r="Q6" s="69">
+      <c r="Q6" s="22">
         <v>0.8516405136</v>
       </c>
       <c r="R6" s="6"/>
-      <c r="S6" s="69">
+      <c r="S6" s="22">
         <v>0.9942938659</v>
       </c>
       <c r="T6" s="6"/>
-      <c r="U6" s="69">
+      <c r="U6" s="22">
         <v>0.8636363636</v>
       </c>
     </row>
@@ -2834,41 +2849,41 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="69">
+      <c r="E7" s="22">
         <v>0.9933523267</v>
       </c>
-      <c r="F7" s="69">
+      <c r="F7" s="22">
         <v>354</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G7" s="22">
         <v>0.8984771574</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="69">
+      <c r="I7" s="22">
         <v>0.8537411382</v>
       </c>
       <c r="J7" s="6"/>
-      <c r="K7" s="69">
+      <c r="K7" s="22">
         <v>0.993594306</v>
       </c>
       <c r="L7" s="6"/>
-      <c r="M7" s="69">
+      <c r="M7" s="22">
         <v>0.847360913</v>
       </c>
       <c r="N7" s="6"/>
-      <c r="O7" s="69">
+      <c r="O7" s="22">
         <v>0.9943060498</v>
       </c>
       <c r="P7" s="6"/>
-      <c r="Q7" s="69">
+      <c r="Q7" s="22">
         <v>0.8530670471</v>
       </c>
       <c r="R7" s="6"/>
-      <c r="S7" s="69">
+      <c r="S7" s="22">
         <v>0.9942938659</v>
       </c>
       <c r="T7" s="6"/>
-      <c r="U7" s="69">
+      <c r="U7" s="22">
         <v>0.8607954545</v>
       </c>
       <c r="W7" s="1"/>
@@ -2878,58 +2893,51 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" s="63" customFormat="1" spans="1:28">
-      <c r="A8" s="61">
+    <row r="8" s="1" customFormat="1" spans="1:21">
+      <c r="A8" s="5">
         <v>12</v>
       </c>
-      <c r="B8" s="81">
+      <c r="B8" s="23">
         <v>5000</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="70">
+      <c r="D8" s="6"/>
+      <c r="E8" s="33">
         <v>0.9933523267</v>
       </c>
-      <c r="F8" s="70">
+      <c r="F8" s="33">
         <v>354</v>
       </c>
-      <c r="G8" s="70">
+      <c r="G8" s="33">
         <v>0.8984771574</v>
       </c>
-      <c r="H8" s="64"/>
-      <c r="I8" s="70">
+      <c r="H8" s="6"/>
+      <c r="I8" s="33">
         <v>0.852328789</v>
       </c>
-      <c r="J8" s="64"/>
-      <c r="K8" s="70">
+      <c r="J8" s="6"/>
+      <c r="K8" s="33">
         <v>0.993594306</v>
       </c>
-      <c r="L8" s="64"/>
-      <c r="M8" s="70">
+      <c r="L8" s="6"/>
+      <c r="M8" s="33">
         <v>0.85021398</v>
       </c>
-      <c r="N8" s="64"/>
-      <c r="O8" s="70">
+      <c r="N8" s="6"/>
+      <c r="O8" s="33">
         <v>0.9943060498</v>
       </c>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="70">
+      <c r="P8" s="6"/>
+      <c r="Q8" s="33">
         <v>0.8559201141</v>
       </c>
-      <c r="R8" s="64"/>
-      <c r="S8" s="70">
+      <c r="R8" s="6"/>
+      <c r="S8" s="33">
         <v>0.9942938659</v>
       </c>
-      <c r="T8" s="64"/>
-      <c r="U8" s="70">
+      <c r="T8" s="6"/>
+      <c r="U8" s="33">
         <v>0.8508522727</v>
       </c>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="52"/>
     </row>
     <row r="9" s="4" customFormat="1" spans="1:28">
       <c r="A9" s="5">
@@ -2940,41 +2948,41 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="69">
+      <c r="E9" s="22">
         <v>0.9933523267</v>
       </c>
-      <c r="F9" s="69">
+      <c r="F9" s="22">
         <v>354</v>
       </c>
-      <c r="G9" s="69">
+      <c r="G9" s="22">
         <v>0.8984771574</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="69">
+      <c r="I9" s="22">
         <v>0.8523267626</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="69">
+      <c r="K9" s="22">
         <v>0.993594306</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="69">
+      <c r="M9" s="22">
         <v>0.8487874465</v>
       </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="69">
+      <c r="O9" s="22">
         <v>0.9943060498</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="69">
+      <c r="Q9" s="22">
         <v>0.8559201141</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="69">
+      <c r="S9" s="22">
         <v>0.9942938659</v>
       </c>
       <c r="T9" s="6"/>
-      <c r="U9" s="69">
+      <c r="U9" s="22">
         <v>0.8522727273</v>
       </c>
       <c r="W9" s="1"/>
@@ -2991,43 +2999,42 @@
       <c r="B10" s="22">
         <v>3000</v>
       </c>
-      <c r="C10" s="1"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="69">
+      <c r="E10" s="22">
         <v>0.9933523267</v>
       </c>
-      <c r="F10" s="69">
+      <c r="F10" s="22">
         <v>354</v>
       </c>
-      <c r="G10" s="69">
+      <c r="G10" s="22">
         <v>0.8984771574</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="69">
+      <c r="I10" s="22">
         <v>0.8518532778</v>
       </c>
       <c r="J10" s="6"/>
-      <c r="K10" s="69">
+      <c r="K10" s="22">
         <v>0.993594306</v>
       </c>
       <c r="L10" s="6"/>
-      <c r="M10" s="69">
+      <c r="M10" s="22">
         <v>0.8487874465</v>
       </c>
       <c r="N10" s="6"/>
-      <c r="O10" s="69">
+      <c r="O10" s="22">
         <v>0.9943060498</v>
       </c>
       <c r="P10" s="6"/>
-      <c r="Q10" s="69">
+      <c r="Q10" s="22">
         <v>0.8559201141</v>
       </c>
       <c r="R10" s="6"/>
-      <c r="S10" s="69">
+      <c r="S10" s="22">
         <v>0.9942938659</v>
       </c>
       <c r="T10" s="6"/>
-      <c r="U10" s="69">
+      <c r="U10" s="22">
         <v>0.8508522727</v>
       </c>
     </row>
@@ -3038,43 +3045,42 @@
       <c r="B11" s="22">
         <v>1000</v>
       </c>
-      <c r="C11" s="1"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="69">
+      <c r="E11" s="22">
         <v>0.9933523267</v>
       </c>
-      <c r="F11" s="69">
+      <c r="F11" s="22">
         <v>354</v>
       </c>
-      <c r="G11" s="69">
+      <c r="G11" s="22">
         <v>0.8984771574</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="69">
+      <c r="I11" s="22">
         <v>0.8504247179</v>
       </c>
       <c r="J11" s="6"/>
-      <c r="K11" s="69">
+      <c r="K11" s="22">
         <v>0.993594306</v>
       </c>
       <c r="L11" s="6"/>
-      <c r="M11" s="69">
+      <c r="M11" s="22">
         <v>0.8445078459</v>
       </c>
       <c r="N11" s="6"/>
-      <c r="O11" s="69">
+      <c r="O11" s="22">
         <v>0.9943060498</v>
       </c>
       <c r="P11" s="6"/>
-      <c r="Q11" s="69">
+      <c r="Q11" s="22">
         <v>0.8544935806</v>
       </c>
       <c r="R11" s="6"/>
-      <c r="S11" s="69">
+      <c r="S11" s="22">
         <v>0.9942938659</v>
       </c>
       <c r="T11" s="6"/>
-      <c r="U11" s="69">
+      <c r="U11" s="22">
         <v>0.8522727273</v>
       </c>
     </row>
@@ -3085,43 +3091,42 @@
       <c r="B12" s="22">
         <v>100</v>
       </c>
-      <c r="C12" s="1"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="69">
+      <c r="E12" s="22">
         <v>0.9933523267</v>
       </c>
-      <c r="F12" s="69">
+      <c r="F12" s="22">
         <v>356</v>
       </c>
-      <c r="G12" s="69">
+      <c r="G12" s="22">
         <v>0.9035532995</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="69">
+      <c r="I12" s="22">
         <v>0.8485165943</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="69">
+      <c r="K12" s="22">
         <v>0.993594306</v>
       </c>
       <c r="L12" s="6"/>
-      <c r="M12" s="69">
+      <c r="M12" s="22">
         <v>0.8388017118</v>
       </c>
       <c r="N12" s="6"/>
-      <c r="O12" s="69">
+      <c r="O12" s="22">
         <v>0.9943060498</v>
       </c>
       <c r="P12" s="6"/>
-      <c r="Q12" s="69">
+      <c r="Q12" s="22">
         <v>0.85021398</v>
       </c>
       <c r="R12" s="6"/>
-      <c r="S12" s="69">
+      <c r="S12" s="22">
         <v>0.9942938659</v>
       </c>
       <c r="T12" s="6"/>
-      <c r="U12" s="69">
+      <c r="U12" s="22">
         <v>0.8565340909</v>
       </c>
     </row>
@@ -3132,43 +3137,42 @@
       <c r="B13" s="22">
         <v>50</v>
       </c>
-      <c r="C13" s="1"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="69">
+      <c r="E13" s="22">
         <v>0.9933523267</v>
       </c>
-      <c r="F13" s="69">
+      <c r="F13" s="22">
         <v>353</v>
       </c>
-      <c r="G13" s="69">
+      <c r="G13" s="22">
         <v>0.8959390863</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="69">
+      <c r="I13" s="22">
         <v>0.8470941134</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="69">
+      <c r="K13" s="22">
         <v>0.993594306</v>
       </c>
       <c r="L13" s="6"/>
-      <c r="M13" s="69">
+      <c r="M13" s="22">
         <v>0.8373751783</v>
       </c>
       <c r="N13" s="6"/>
-      <c r="O13" s="69">
+      <c r="O13" s="22">
         <v>0.9943060498</v>
       </c>
       <c r="P13" s="6"/>
-      <c r="Q13" s="69">
+      <c r="Q13" s="22">
         <v>0.85021398</v>
       </c>
       <c r="R13" s="6"/>
-      <c r="S13" s="69">
+      <c r="S13" s="22">
         <v>0.9942938659</v>
       </c>
       <c r="T13" s="6"/>
-      <c r="U13" s="69">
+      <c r="U13" s="22">
         <v>0.8536931818</v>
       </c>
     </row>
@@ -3179,43 +3183,42 @@
       <c r="B14" s="22">
         <v>20</v>
       </c>
-      <c r="C14" s="1"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="69">
+      <c r="E14" s="22">
         <v>0.9924026591</v>
       </c>
-      <c r="F14" s="69">
+      <c r="F14" s="22">
         <v>353</v>
       </c>
-      <c r="G14" s="69">
+      <c r="G14" s="22">
         <v>0.8959390863</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="69">
+      <c r="I14" s="22">
         <v>0.8456696062</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="69">
+      <c r="K14" s="22">
         <v>0.9914590747</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="69">
+      <c r="M14" s="22">
         <v>0.8359486448</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="69">
+      <c r="O14" s="22">
         <v>0.9914590747</v>
       </c>
       <c r="P14" s="6"/>
-      <c r="Q14" s="69">
+      <c r="Q14" s="22">
         <v>0.8487874465</v>
       </c>
       <c r="R14" s="6"/>
-      <c r="S14" s="69">
+      <c r="S14" s="22">
         <v>0.9921540656</v>
       </c>
       <c r="T14" s="6"/>
-      <c r="U14" s="69">
+      <c r="U14" s="22">
         <v>0.8522727273</v>
       </c>
     </row>
@@ -3226,43 +3229,42 @@
       <c r="B15" s="22">
         <v>30</v>
       </c>
-      <c r="C15" s="1"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="69">
+      <c r="E15" s="22">
         <v>0.9928774929</v>
       </c>
-      <c r="F15" s="69">
+      <c r="F15" s="22">
         <v>354</v>
       </c>
-      <c r="G15" s="69">
+      <c r="G15" s="22">
         <v>0.8984771574</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="69">
+      <c r="I15" s="22">
         <v>0.8456635272</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="69">
+      <c r="K15" s="22">
         <v>0.9921708185</v>
       </c>
       <c r="L15" s="6"/>
-      <c r="M15" s="69">
+      <c r="M15" s="22">
         <v>0.8430813124</v>
       </c>
       <c r="N15" s="6"/>
-      <c r="O15" s="69">
+      <c r="O15" s="22">
         <v>0.993594306</v>
       </c>
       <c r="P15" s="6"/>
-      <c r="Q15" s="69">
+      <c r="Q15" s="22">
         <v>0.8373751783</v>
       </c>
       <c r="R15" s="6"/>
-      <c r="S15" s="69">
+      <c r="S15" s="22">
         <v>0.9935805991</v>
       </c>
       <c r="T15" s="6"/>
-      <c r="U15" s="69">
+      <c r="U15" s="22">
         <v>0.8565340909</v>
       </c>
     </row>
@@ -3273,43 +3275,42 @@
       <c r="B16" s="22">
         <v>10</v>
       </c>
-      <c r="C16" s="1"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="69">
+      <c r="E16" s="22">
         <v>0.9890788224</v>
       </c>
-      <c r="F16" s="69">
+      <c r="F16" s="22">
         <v>346</v>
       </c>
-      <c r="G16" s="69">
+      <c r="G16" s="22">
         <v>0.8781725888</v>
       </c>
       <c r="H16" s="6"/>
-      <c r="I16" s="69">
+      <c r="I16" s="22">
         <v>0.8342796276</v>
       </c>
       <c r="J16" s="39"/>
-      <c r="K16" s="69">
+      <c r="K16" s="22">
         <v>0.9871886121</v>
       </c>
       <c r="L16" s="40"/>
-      <c r="M16" s="69">
+      <c r="M16" s="22">
         <v>0.8259629101</v>
       </c>
       <c r="N16" s="40"/>
-      <c r="O16" s="69">
+      <c r="O16" s="22">
         <v>0.9900355872</v>
       </c>
       <c r="P16" s="40"/>
-      <c r="Q16" s="69">
+      <c r="Q16" s="22">
         <v>0.8402282454</v>
       </c>
       <c r="R16" s="40"/>
-      <c r="S16" s="69">
+      <c r="S16" s="22">
         <v>0.9857346648</v>
       </c>
       <c r="T16" s="40"/>
-      <c r="U16" s="69">
+      <c r="U16" s="22">
         <v>0.8366477273</v>
       </c>
     </row>
@@ -3464,7 +3465,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:U24">
-    <sortState ref="A5:U24">
+    <sortState ref="A4:U24">
       <sortCondition ref="I4" descending="1"/>
     </sortState>
   </autoFilter>
@@ -3523,7 +3524,7 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.1" customHeight="1" spans="1:21">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>73</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -3685,54 +3686,53 @@
       <c r="W4" s="44"/>
       <c r="X4" s="43"/>
     </row>
-    <row r="5" s="83" customFormat="1" spans="1:21">
-      <c r="A5" s="84">
+    <row r="5" s="70" customFormat="1" spans="1:21">
+      <c r="A5" s="71">
         <v>9</v>
       </c>
-      <c r="B5" s="85">
+      <c r="B5" s="72">
         <v>1000</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="69">
+      <c r="D5" s="73"/>
+      <c r="E5" s="22">
         <v>0.9857549858</v>
       </c>
-      <c r="F5" s="85">
+      <c r="F5" s="72">
         <v>321</v>
       </c>
-      <c r="G5" s="82">
+      <c r="G5" s="67">
         <v>0.8167140827</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="85">
+      <c r="H5" s="73"/>
+      <c r="I5" s="72">
         <v>0.7987365795</v>
       </c>
-      <c r="J5" s="86"/>
-      <c r="K5" s="69">
+      <c r="J5" s="73"/>
+      <c r="K5" s="22">
         <v>0.9871886121</v>
       </c>
-      <c r="L5" s="86"/>
-      <c r="M5" s="69">
+      <c r="L5" s="73"/>
+      <c r="M5" s="22">
         <v>0.8045649073</v>
       </c>
-      <c r="N5" s="86"/>
-      <c r="O5" s="69">
+      <c r="N5" s="73"/>
+      <c r="O5" s="22">
         <v>0.9879003559</v>
       </c>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="69">
+      <c r="P5" s="73"/>
+      <c r="Q5" s="22">
         <v>0.8288159772</v>
       </c>
-      <c r="R5" s="86"/>
-      <c r="S5" s="69">
+      <c r="R5" s="73"/>
+      <c r="S5" s="22">
         <v>0.9871611983</v>
       </c>
-      <c r="T5" s="86"/>
-      <c r="U5" s="69">
+      <c r="T5" s="73"/>
+      <c r="U5" s="22">
         <v>0.8167613636</v>
       </c>
     </row>
-    <row r="6" s="66" customFormat="1" spans="1:21">
+    <row r="6" s="61" customFormat="1" spans="1:21">
       <c r="A6" s="5">
         <v>12</v>
       </c>
@@ -3741,13 +3741,13 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="69">
+      <c r="E6" s="22">
         <v>0.9857549858</v>
       </c>
       <c r="F6" s="33">
         <v>321</v>
       </c>
-      <c r="G6" s="69">
+      <c r="G6" s="22">
         <v>0.8119812605</v>
       </c>
       <c r="H6" s="6"/>
@@ -3755,27 +3755,27 @@
         <v>0.7962204682</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="69">
+      <c r="K6" s="22">
         <v>0.9871886121</v>
       </c>
       <c r="L6" s="6"/>
-      <c r="M6" s="69">
+      <c r="M6" s="22">
         <v>0.8017118402</v>
       </c>
       <c r="N6" s="6"/>
-      <c r="O6" s="69">
+      <c r="O6" s="22">
         <v>0.9879003559</v>
       </c>
       <c r="P6" s="6"/>
-      <c r="Q6" s="69">
+      <c r="Q6" s="22">
         <v>0.8330955777</v>
       </c>
       <c r="R6" s="6"/>
-      <c r="S6" s="69">
+      <c r="S6" s="22">
         <v>0.9871611983</v>
       </c>
       <c r="T6" s="6"/>
-      <c r="U6" s="69">
+      <c r="U6" s="22">
         <v>0.8011363636</v>
       </c>
     </row>
@@ -3788,13 +3788,13 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="69">
+      <c r="E7" s="22">
         <v>0.9857549858</v>
       </c>
       <c r="F7" s="22">
         <v>319</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G7" s="22">
         <v>0.8143567901</v>
       </c>
       <c r="H7" s="6"/>
@@ -3802,27 +3802,27 @@
         <v>0.7952194469</v>
       </c>
       <c r="J7" s="6"/>
-      <c r="K7" s="69">
+      <c r="K7" s="22">
         <v>0.9871886121</v>
       </c>
       <c r="L7" s="6"/>
-      <c r="M7" s="69">
+      <c r="M7" s="22">
         <v>0.8074179743</v>
       </c>
       <c r="N7" s="6"/>
-      <c r="O7" s="69">
+      <c r="O7" s="22">
         <v>0.9879003559</v>
       </c>
       <c r="P7" s="6"/>
-      <c r="Q7" s="69">
+      <c r="Q7" s="22">
         <v>0.8330955777</v>
       </c>
       <c r="R7" s="6"/>
-      <c r="S7" s="69">
+      <c r="S7" s="22">
         <v>0.9871611983</v>
       </c>
       <c r="T7" s="6"/>
-      <c r="U7" s="69">
+      <c r="U7" s="22">
         <v>0.8025568182</v>
       </c>
       <c r="W7" s="1"/>
@@ -3841,13 +3841,13 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="69">
+      <c r="E8" s="22">
         <v>0.9857549858</v>
       </c>
       <c r="F8" s="22">
         <v>320</v>
       </c>
-      <c r="G8" s="69">
+      <c r="G8" s="22">
         <v>0.8119812605</v>
       </c>
       <c r="H8" s="6"/>
@@ -3855,27 +3855,27 @@
         <v>0.7926987034</v>
       </c>
       <c r="J8" s="6"/>
-      <c r="K8" s="69">
+      <c r="K8" s="22">
         <v>0.9871886121</v>
       </c>
       <c r="L8" s="6"/>
-      <c r="M8" s="69">
+      <c r="M8" s="22">
         <v>0.8002853067</v>
       </c>
       <c r="N8" s="6"/>
-      <c r="O8" s="69">
+      <c r="O8" s="22">
         <v>0.9879003559</v>
       </c>
       <c r="P8" s="6"/>
-      <c r="Q8" s="69">
+      <c r="Q8" s="22">
         <v>0.8345221113</v>
       </c>
       <c r="R8" s="6"/>
-      <c r="S8" s="69">
+      <c r="S8" s="22">
         <v>0.9871611983</v>
       </c>
       <c r="T8" s="6"/>
-      <c r="U8" s="69">
+      <c r="U8" s="22">
         <v>0.8011363636</v>
       </c>
       <c r="W8" s="1"/>
@@ -3894,13 +3894,13 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="69">
+      <c r="E9" s="22">
         <v>0.9857549858</v>
       </c>
       <c r="F9" s="22">
         <v>324</v>
       </c>
-      <c r="G9" s="69">
+      <c r="G9" s="22">
         <v>0.8157590077</v>
       </c>
       <c r="H9" s="6"/>
@@ -3908,27 +3908,27 @@
         <v>0.7926964182</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="69">
+      <c r="K9" s="22">
         <v>0.9871886121</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="69">
+      <c r="M9" s="22">
         <v>0.7988587732</v>
       </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="69">
+      <c r="O9" s="22">
         <v>0.9879003559</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="69">
+      <c r="Q9" s="22">
         <v>0.8288159772</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="69">
+      <c r="S9" s="22">
         <v>0.9871611983</v>
       </c>
       <c r="T9" s="6"/>
-      <c r="U9" s="69">
+      <c r="U9" s="22">
         <v>0.8196022727</v>
       </c>
       <c r="W9" s="1"/>
@@ -3946,13 +3946,13 @@
         <v>300</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="69">
+      <c r="E10" s="22">
         <v>0.9857549858</v>
       </c>
       <c r="F10" s="22">
         <v>324</v>
       </c>
-      <c r="G10" s="69">
+      <c r="G10" s="22">
         <v>0.8067486113</v>
       </c>
       <c r="H10" s="6"/>
@@ -3960,27 +3960,27 @@
         <v>0.7906898664</v>
       </c>
       <c r="J10" s="6"/>
-      <c r="K10" s="69">
+      <c r="K10" s="22">
         <v>0.9871886121</v>
       </c>
       <c r="L10" s="6"/>
-      <c r="M10" s="69">
+      <c r="M10" s="22">
         <v>0.7960057061</v>
       </c>
       <c r="N10" s="6"/>
-      <c r="O10" s="69">
+      <c r="O10" s="22">
         <v>0.9879003559</v>
       </c>
       <c r="P10" s="6"/>
-      <c r="Q10" s="69">
+      <c r="Q10" s="22">
         <v>0.8216833096</v>
       </c>
       <c r="R10" s="6"/>
-      <c r="S10" s="69">
+      <c r="S10" s="22">
         <v>0.9871611983</v>
       </c>
       <c r="T10" s="6"/>
-      <c r="U10" s="69">
+      <c r="U10" s="22">
         <v>0.8025568182</v>
       </c>
     </row>
@@ -3992,13 +3992,13 @@
         <v>200</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="69">
+      <c r="E11" s="22">
         <v>0.9857549858</v>
       </c>
       <c r="F11" s="22">
         <v>320</v>
       </c>
-      <c r="G11" s="69">
+      <c r="G11" s="22">
         <v>0.8086283664</v>
       </c>
       <c r="H11" s="6"/>
@@ -4006,27 +4006,27 @@
         <v>0.7901666565</v>
       </c>
       <c r="J11" s="6"/>
-      <c r="K11" s="69">
+      <c r="K11" s="22">
         <v>0.9871886121</v>
       </c>
       <c r="L11" s="6"/>
-      <c r="M11" s="69">
+      <c r="M11" s="22">
         <v>0.7888730385</v>
       </c>
       <c r="N11" s="6"/>
-      <c r="O11" s="69">
+      <c r="O11" s="22">
         <v>0.9879003559</v>
       </c>
       <c r="P11" s="6"/>
-      <c r="Q11" s="69">
+      <c r="Q11" s="22">
         <v>0.8188302425</v>
       </c>
       <c r="R11" s="6"/>
-      <c r="S11" s="69">
+      <c r="S11" s="22">
         <v>0.9871611983</v>
       </c>
       <c r="T11" s="6"/>
-      <c r="U11" s="69">
+      <c r="U11" s="22">
         <v>0.8181818182</v>
       </c>
     </row>
@@ -4037,15 +4037,14 @@
       <c r="B12" s="22">
         <v>100</v>
       </c>
-      <c r="C12" s="1"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="69">
+      <c r="E12" s="22">
         <v>0.9857549858</v>
       </c>
       <c r="F12" s="22">
         <v>318</v>
       </c>
-      <c r="G12" s="69">
+      <c r="G12" s="22">
         <v>0.8057935363</v>
       </c>
       <c r="H12" s="6"/>
@@ -4053,27 +4052,27 @@
         <v>0.7841672616</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="69">
+      <c r="K12" s="22">
         <v>0.9871886121</v>
       </c>
       <c r="L12" s="6"/>
-      <c r="M12" s="69">
+      <c r="M12" s="22">
         <v>0.7845934379</v>
       </c>
       <c r="N12" s="6"/>
-      <c r="O12" s="69">
+      <c r="O12" s="22">
         <v>0.9879003559</v>
       </c>
       <c r="P12" s="6"/>
-      <c r="Q12" s="69">
+      <c r="Q12" s="22">
         <v>0.8273894437</v>
       </c>
       <c r="R12" s="6"/>
-      <c r="S12" s="69">
+      <c r="S12" s="22">
         <v>0.9871611983</v>
       </c>
       <c r="T12" s="6"/>
-      <c r="U12" s="69">
+      <c r="U12" s="22">
         <v>0.8053977273</v>
       </c>
     </row>
@@ -4084,15 +4083,14 @@
       <c r="B13" s="22">
         <v>50</v>
       </c>
-      <c r="C13" s="1"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="69">
+      <c r="E13" s="22">
         <v>0.9857549858</v>
       </c>
       <c r="F13" s="22">
         <v>325</v>
       </c>
-      <c r="G13" s="69">
+      <c r="G13" s="22">
         <v>0.801522041</v>
       </c>
       <c r="H13" s="6"/>
@@ -4100,27 +4098,27 @@
         <v>0.7806524142</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="69">
+      <c r="K13" s="22">
         <v>0.9871886121</v>
       </c>
       <c r="L13" s="6"/>
-      <c r="M13" s="69">
+      <c r="M13" s="22">
         <v>0.7817403709</v>
       </c>
       <c r="N13" s="6"/>
-      <c r="O13" s="69">
+      <c r="O13" s="22">
         <v>0.9879003559</v>
       </c>
       <c r="P13" s="6"/>
-      <c r="Q13" s="69">
+      <c r="Q13" s="22">
         <v>0.8231098431</v>
       </c>
       <c r="R13" s="6"/>
-      <c r="S13" s="69">
+      <c r="S13" s="22">
         <v>0.9871611983</v>
       </c>
       <c r="T13" s="6"/>
-      <c r="U13" s="69">
+      <c r="U13" s="22">
         <v>0.7997159091</v>
       </c>
     </row>
@@ -4131,15 +4129,14 @@
       <c r="B14" s="22">
         <v>30</v>
       </c>
-      <c r="C14" s="1"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="69">
+      <c r="E14" s="22">
         <v>0.9852801519</v>
       </c>
       <c r="F14" s="22">
         <v>312</v>
       </c>
-      <c r="G14" s="69">
+      <c r="G14" s="22">
         <v>0.8005710187</v>
       </c>
       <c r="H14" s="6"/>
@@ -4147,27 +4144,27 @@
         <v>0.7696114709</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="69">
+      <c r="K14" s="22">
         <v>0.9850533808</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="69">
+      <c r="M14" s="22">
         <v>0.7817403709</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="69">
+      <c r="O14" s="22">
         <v>0.9864768683</v>
       </c>
       <c r="P14" s="6"/>
-      <c r="Q14" s="69">
+      <c r="Q14" s="22">
         <v>0.820256776</v>
       </c>
       <c r="R14" s="6"/>
-      <c r="S14" s="69">
+      <c r="S14" s="22">
         <v>0.9871611983</v>
       </c>
       <c r="T14" s="6"/>
-      <c r="U14" s="69">
+      <c r="U14" s="22">
         <v>0.7997159091</v>
       </c>
     </row>
@@ -4178,15 +4175,14 @@
       <c r="B15" s="22">
         <v>20</v>
       </c>
-      <c r="C15" s="1"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="69">
+      <c r="E15" s="22">
         <v>0.9838556505</v>
       </c>
       <c r="F15" s="22">
         <v>308</v>
       </c>
-      <c r="G15" s="69">
+      <c r="G15" s="22">
         <v>0.7896666829</v>
       </c>
       <c r="H15" s="6"/>
@@ -4194,27 +4190,27 @@
         <v>0.7625388475</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="69">
+      <c r="K15" s="22">
         <v>0.9850533808</v>
       </c>
       <c r="L15" s="6"/>
-      <c r="M15" s="69">
+      <c r="M15" s="22">
         <v>0.7788873039</v>
       </c>
       <c r="N15" s="6"/>
-      <c r="O15" s="69">
+      <c r="O15" s="22">
         <v>0.9857651246</v>
       </c>
       <c r="P15" s="6"/>
-      <c r="Q15" s="69">
+      <c r="Q15" s="22">
         <v>0.8131241084</v>
       </c>
       <c r="R15" s="6"/>
-      <c r="S15" s="69">
+      <c r="S15" s="22">
         <v>0.9871611983</v>
       </c>
       <c r="T15" s="6"/>
-      <c r="U15" s="69">
+      <c r="U15" s="22">
         <v>0.7769886364</v>
       </c>
     </row>
@@ -4225,15 +4221,14 @@
       <c r="B16" s="22">
         <v>10</v>
       </c>
-      <c r="C16" s="1"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="69">
+      <c r="E16" s="22">
         <v>0.9810066477</v>
       </c>
       <c r="F16" s="22">
         <v>313</v>
       </c>
-      <c r="G16" s="69">
+      <c r="G16" s="22">
         <v>0.7730420287</v>
       </c>
       <c r="H16" s="6"/>
@@ -4241,27 +4236,27 @@
         <v>0.7454850434</v>
       </c>
       <c r="J16" s="39"/>
-      <c r="K16" s="69">
+      <c r="K16" s="22">
         <v>0.9786476868</v>
       </c>
       <c r="L16" s="40"/>
-      <c r="M16" s="69">
+      <c r="M16" s="22">
         <v>0.7617689016</v>
       </c>
       <c r="N16" s="40"/>
-      <c r="O16" s="69">
+      <c r="O16" s="22">
         <v>0.9807829181</v>
       </c>
       <c r="P16" s="40"/>
-      <c r="Q16" s="69">
+      <c r="Q16" s="22">
         <v>0.7931526391</v>
       </c>
       <c r="R16" s="40"/>
-      <c r="S16" s="69">
+      <c r="S16" s="22">
         <v>0.9807417974</v>
       </c>
       <c r="T16" s="40"/>
-      <c r="U16" s="69">
+      <c r="U16" s="22">
         <v>0.7642045455</v>
       </c>
     </row>
@@ -4418,7 +4413,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:U24">
-    <sortState ref="A5:U24">
+    <sortState ref="A4:U24">
       <sortCondition ref="I4" descending="1"/>
     </sortState>
   </autoFilter>
@@ -4451,7 +4446,7 @@
   <dimension ref="A1:AB24"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="A1" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="12"/>
@@ -4641,50 +4636,50 @@
       <c r="W4" s="44"/>
       <c r="X4" s="43"/>
     </row>
-    <row r="5" s="76" customFormat="1" spans="1:21">
-      <c r="A5" s="77">
+    <row r="5" s="65" customFormat="1" spans="1:21">
+      <c r="A5" s="66">
         <v>3</v>
       </c>
-      <c r="B5" s="78">
+      <c r="B5" s="67">
         <v>30</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="82">
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="67">
         <v>0.9968652038</v>
       </c>
-      <c r="F5" s="78">
+      <c r="F5" s="67">
         <v>298</v>
       </c>
-      <c r="G5" s="82">
+      <c r="G5" s="67">
         <v>0.9371069182</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="82">
+      <c r="H5" s="69"/>
+      <c r="I5" s="67">
         <v>0.9663058087</v>
       </c>
-      <c r="J5" s="80"/>
-      <c r="K5" s="82">
+      <c r="J5" s="69"/>
+      <c r="K5" s="67">
         <v>0.9964747356</v>
       </c>
-      <c r="L5" s="80"/>
-      <c r="M5" s="82">
+      <c r="L5" s="69"/>
+      <c r="M5" s="67">
         <v>0.9623529412</v>
       </c>
-      <c r="N5" s="80"/>
-      <c r="O5" s="82">
+      <c r="N5" s="69"/>
+      <c r="O5" s="67">
         <v>0.9976498237</v>
       </c>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="82">
+      <c r="P5" s="69"/>
+      <c r="Q5" s="67">
         <v>0.9764705882</v>
       </c>
-      <c r="R5" s="80"/>
-      <c r="S5" s="82">
+      <c r="R5" s="69"/>
+      <c r="S5" s="67">
         <v>0.9964705882</v>
       </c>
-      <c r="T5" s="80"/>
-      <c r="U5" s="82">
+      <c r="T5" s="69"/>
+      <c r="U5" s="67">
         <v>0.9600938967</v>
       </c>
     </row>
@@ -4697,41 +4692,41 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="69">
+      <c r="E6" s="22">
         <v>0.9968652038</v>
       </c>
       <c r="F6" s="22">
         <v>302</v>
       </c>
-      <c r="G6" s="69">
+      <c r="G6" s="22">
         <v>0.9496855346</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="69">
+      <c r="I6" s="22">
         <v>0.9647408635</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="69">
+      <c r="K6" s="22">
         <v>0.9964747356</v>
       </c>
       <c r="L6" s="6"/>
-      <c r="M6" s="69">
+      <c r="M6" s="22">
         <v>0.9670588235</v>
       </c>
       <c r="N6" s="6"/>
-      <c r="O6" s="69">
+      <c r="O6" s="22">
         <v>0.9976498237</v>
       </c>
       <c r="P6" s="6"/>
-      <c r="Q6" s="69">
+      <c r="Q6" s="22">
         <v>0.9717647059</v>
       </c>
       <c r="R6" s="6"/>
-      <c r="S6" s="69">
+      <c r="S6" s="22">
         <v>0.9976470588</v>
       </c>
       <c r="T6" s="6"/>
-      <c r="U6" s="69">
+      <c r="U6" s="22">
         <v>0.955399061</v>
       </c>
     </row>
@@ -4744,41 +4739,41 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="69">
+      <c r="E7" s="22">
         <v>0.9968652038</v>
       </c>
       <c r="F7" s="22">
         <v>299</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G7" s="22">
         <v>0.9402515723</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="69">
+      <c r="I7" s="22">
         <v>0.9647371813</v>
       </c>
       <c r="J7" s="6"/>
-      <c r="K7" s="69">
+      <c r="K7" s="22">
         <v>0.9964747356</v>
       </c>
       <c r="L7" s="6"/>
-      <c r="M7" s="69">
+      <c r="M7" s="22">
         <v>0.9623529412</v>
       </c>
       <c r="N7" s="6"/>
-      <c r="O7" s="69">
+      <c r="O7" s="22">
         <v>0.9976498237</v>
       </c>
       <c r="P7" s="6"/>
-      <c r="Q7" s="69">
+      <c r="Q7" s="22">
         <v>0.9717647059</v>
       </c>
       <c r="R7" s="6"/>
-      <c r="S7" s="69">
+      <c r="S7" s="22">
         <v>0.9976470588</v>
       </c>
       <c r="T7" s="6"/>
-      <c r="U7" s="69">
+      <c r="U7" s="22">
         <v>0.9600938967</v>
       </c>
       <c r="W7" s="1"/>
@@ -4796,41 +4791,41 @@
         <v>5000</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="69">
+      <c r="E8" s="22">
         <v>0.9968652038</v>
       </c>
       <c r="F8" s="23">
         <v>301</v>
       </c>
-      <c r="G8" s="69">
+      <c r="G8" s="22">
         <v>0.9465408805</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="69">
+      <c r="I8" s="22">
         <v>0.9639565498</v>
       </c>
       <c r="J8" s="6"/>
-      <c r="K8" s="69">
+      <c r="K8" s="22">
         <v>0.9964747356</v>
       </c>
       <c r="L8" s="6"/>
-      <c r="M8" s="69">
+      <c r="M8" s="22">
         <v>0.9647058824</v>
       </c>
       <c r="N8" s="6"/>
-      <c r="O8" s="69">
+      <c r="O8" s="22">
         <v>0.9976498237</v>
       </c>
       <c r="P8" s="6"/>
-      <c r="Q8" s="69">
+      <c r="Q8" s="22">
         <v>0.9717647059</v>
       </c>
       <c r="R8" s="6"/>
-      <c r="S8" s="69">
+      <c r="S8" s="22">
         <v>0.9976470588</v>
       </c>
       <c r="T8" s="6"/>
-      <c r="U8" s="69">
+      <c r="U8" s="22">
         <v>0.955399061</v>
       </c>
     </row>
@@ -4843,41 +4838,41 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="69">
+      <c r="E9" s="22">
         <v>0.9968652038</v>
       </c>
       <c r="F9" s="22">
         <v>300</v>
       </c>
-      <c r="G9" s="69">
+      <c r="G9" s="22">
         <v>0.9433962264</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="69">
+      <c r="I9" s="22">
         <v>0.9639547086</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="69">
+      <c r="K9" s="22">
         <v>0.9964747356</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="69">
+      <c r="M9" s="22">
         <v>0.9623529412</v>
       </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="69">
+      <c r="O9" s="22">
         <v>0.9976498237</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="69">
+      <c r="Q9" s="22">
         <v>0.9717647059</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="69">
+      <c r="S9" s="22">
         <v>0.9976470588</v>
       </c>
       <c r="T9" s="6"/>
-      <c r="U9" s="69">
+      <c r="U9" s="22">
         <v>0.9577464789</v>
       </c>
       <c r="W9" s="1"/>
@@ -4895,41 +4890,41 @@
         <v>500</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="69">
+      <c r="E10" s="22">
         <v>0.9968652038</v>
       </c>
       <c r="F10" s="22">
         <v>301</v>
       </c>
-      <c r="G10" s="69">
+      <c r="G10" s="22">
         <v>0.9465408805</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="69">
+      <c r="I10" s="22">
         <v>0.9639547086</v>
       </c>
       <c r="J10" s="6"/>
-      <c r="K10" s="69">
+      <c r="K10" s="22">
         <v>0.9964747356</v>
       </c>
       <c r="L10" s="6"/>
-      <c r="M10" s="69">
+      <c r="M10" s="22">
         <v>0.9647058824</v>
       </c>
       <c r="N10" s="6"/>
-      <c r="O10" s="69">
+      <c r="O10" s="22">
         <v>0.9976498237</v>
       </c>
       <c r="P10" s="6"/>
-      <c r="Q10" s="69">
+      <c r="Q10" s="22">
         <v>0.9694117647</v>
       </c>
       <c r="R10" s="6"/>
-      <c r="S10" s="69">
+      <c r="S10" s="22">
         <v>0.9976470588</v>
       </c>
       <c r="T10" s="6"/>
-      <c r="U10" s="69">
+      <c r="U10" s="22">
         <v>0.9577464789</v>
       </c>
       <c r="V10"/>
@@ -4941,43 +4936,42 @@
       <c r="B11" s="22">
         <v>20</v>
       </c>
-      <c r="C11" s="1"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="69">
+      <c r="E11" s="22">
         <v>0.9968652038</v>
       </c>
       <c r="F11" s="22">
         <v>298</v>
       </c>
-      <c r="G11" s="69">
+      <c r="G11" s="22">
         <v>0.9371069182</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="69">
+      <c r="I11" s="22">
         <v>0.963172236</v>
       </c>
       <c r="J11" s="6"/>
-      <c r="K11" s="69">
+      <c r="K11" s="22">
         <v>0.9952996475</v>
       </c>
       <c r="L11" s="6"/>
-      <c r="M11" s="69">
+      <c r="M11" s="22">
         <v>0.96</v>
       </c>
       <c r="N11" s="6"/>
-      <c r="O11" s="69">
+      <c r="O11" s="22">
         <v>0.9964747356</v>
       </c>
       <c r="P11" s="6"/>
-      <c r="Q11" s="69">
+      <c r="Q11" s="22">
         <v>0.9741176471</v>
       </c>
       <c r="R11" s="6"/>
-      <c r="S11" s="69">
+      <c r="S11" s="22">
         <v>0.9952941176</v>
       </c>
       <c r="T11" s="6"/>
-      <c r="U11" s="69">
+      <c r="U11" s="22">
         <v>0.955399061</v>
       </c>
     </row>
@@ -4988,43 +4982,42 @@
       <c r="B12" s="22">
         <v>3000</v>
       </c>
-      <c r="C12" s="1"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="69">
+      <c r="E12" s="22">
         <v>0.9968652038</v>
       </c>
       <c r="F12" s="22">
         <v>301</v>
       </c>
-      <c r="G12" s="69">
+      <c r="G12" s="22">
         <v>0.9465408805</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="69">
+      <c r="I12" s="22">
         <v>0.963172236</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="69">
+      <c r="K12" s="22">
         <v>0.9964747356</v>
       </c>
       <c r="L12" s="6"/>
-      <c r="M12" s="69">
+      <c r="M12" s="22">
         <v>0.9623529412</v>
       </c>
       <c r="N12" s="6"/>
-      <c r="O12" s="69">
+      <c r="O12" s="22">
         <v>0.9976498237</v>
       </c>
       <c r="P12" s="6"/>
-      <c r="Q12" s="69">
+      <c r="Q12" s="22">
         <v>0.9717647059</v>
       </c>
       <c r="R12" s="6"/>
-      <c r="S12" s="69">
+      <c r="S12" s="22">
         <v>0.9976470588</v>
       </c>
       <c r="T12" s="6"/>
-      <c r="U12" s="69">
+      <c r="U12" s="22">
         <v>0.955399061</v>
       </c>
     </row>
@@ -5035,90 +5028,88 @@
       <c r="B13" s="22">
         <v>200</v>
       </c>
-      <c r="C13" s="1"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="69">
+      <c r="E13" s="22">
         <v>0.9968652038</v>
       </c>
       <c r="F13" s="22">
         <v>300</v>
       </c>
-      <c r="G13" s="69">
+      <c r="G13" s="22">
         <v>0.9433962264</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="69">
+      <c r="I13" s="22">
         <v>0.9623897634</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="69">
+      <c r="K13" s="22">
         <v>0.9964747356</v>
       </c>
       <c r="L13" s="6"/>
-      <c r="M13" s="69">
+      <c r="M13" s="22">
         <v>0.9647058824</v>
       </c>
       <c r="N13" s="6"/>
-      <c r="O13" s="69">
+      <c r="O13" s="22">
         <v>0.9976498237</v>
       </c>
       <c r="P13" s="6"/>
-      <c r="Q13" s="69">
+      <c r="Q13" s="22">
         <v>0.9694117647</v>
       </c>
       <c r="R13" s="6"/>
-      <c r="S13" s="69">
+      <c r="S13" s="22">
         <v>0.9976470588</v>
       </c>
       <c r="T13" s="6"/>
-      <c r="U13" s="69">
+      <c r="U13" s="22">
         <v>0.9530516432</v>
       </c>
     </row>
-    <row r="14" s="52" customFormat="1" spans="1:21">
-      <c r="A14" s="61">
+    <row r="14" s="1" customFormat="1" spans="1:21">
+      <c r="A14" s="5">
         <v>10</v>
       </c>
-      <c r="B14" s="81">
+      <c r="B14" s="23">
         <v>2000</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="70">
+      <c r="D14" s="6"/>
+      <c r="E14" s="33">
         <v>0.9968652038</v>
       </c>
-      <c r="F14" s="81">
+      <c r="F14" s="23">
         <v>301</v>
       </c>
-      <c r="G14" s="70">
+      <c r="G14" s="33">
         <v>0.9465408805</v>
       </c>
-      <c r="H14" s="64"/>
-      <c r="I14" s="70">
+      <c r="H14" s="6"/>
+      <c r="I14" s="33">
         <v>0.9623897634</v>
       </c>
-      <c r="J14" s="64"/>
-      <c r="K14" s="70">
+      <c r="J14" s="6"/>
+      <c r="K14" s="33">
         <v>0.9964747356</v>
       </c>
-      <c r="L14" s="64"/>
-      <c r="M14" s="70">
+      <c r="L14" s="6"/>
+      <c r="M14" s="33">
         <v>0.9623529412</v>
       </c>
-      <c r="N14" s="64"/>
-      <c r="O14" s="70">
+      <c r="N14" s="6"/>
+      <c r="O14" s="33">
         <v>0.9976498237</v>
       </c>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="70">
+      <c r="P14" s="6"/>
+      <c r="Q14" s="33">
         <v>0.9717647059</v>
       </c>
-      <c r="R14" s="64"/>
-      <c r="S14" s="70">
+      <c r="R14" s="6"/>
+      <c r="S14" s="33">
         <v>0.9976470588</v>
       </c>
-      <c r="T14" s="64"/>
-      <c r="U14" s="70">
+      <c r="T14" s="6"/>
+      <c r="U14" s="33">
         <v>0.9530516432</v>
       </c>
     </row>
@@ -5129,43 +5120,42 @@
       <c r="B15" s="22">
         <v>10</v>
       </c>
-      <c r="C15" s="1"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="69">
+      <c r="E15" s="22">
         <v>0.9960815047</v>
       </c>
       <c r="F15" s="22">
         <v>293</v>
       </c>
-      <c r="G15" s="69">
+      <c r="G15" s="22">
         <v>0.9213836478</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="69">
+      <c r="I15" s="22">
         <v>0.9616017675</v>
       </c>
       <c r="J15" s="39"/>
-      <c r="K15" s="69">
+      <c r="K15" s="22">
         <v>0.9941245593</v>
       </c>
       <c r="L15" s="40"/>
-      <c r="M15" s="69">
+      <c r="M15" s="22">
         <v>0.9529411765</v>
       </c>
       <c r="N15" s="40"/>
-      <c r="O15" s="69">
+      <c r="O15" s="22">
         <v>0.9964747356</v>
       </c>
       <c r="P15" s="40"/>
-      <c r="Q15" s="69">
+      <c r="Q15" s="22">
         <v>0.9741176471</v>
       </c>
       <c r="R15" s="40"/>
-      <c r="S15" s="69">
+      <c r="S15" s="22">
         <v>0.9952941176</v>
       </c>
       <c r="T15" s="40"/>
-      <c r="U15" s="69">
+      <c r="U15" s="22">
         <v>0.9577464789</v>
       </c>
     </row>
@@ -5176,43 +5166,42 @@
       <c r="B16" s="22">
         <v>300</v>
       </c>
-      <c r="C16" s="1"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="69">
+      <c r="E16" s="22">
         <v>0.9968652038</v>
       </c>
       <c r="F16" s="22">
         <v>302</v>
       </c>
-      <c r="G16" s="69">
+      <c r="G16" s="22">
         <v>0.9496855346</v>
       </c>
       <c r="H16" s="6"/>
-      <c r="I16" s="69">
+      <c r="I16" s="22">
         <v>0.9600386634</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="69">
+      <c r="K16" s="22">
         <v>0.9964747356</v>
       </c>
       <c r="L16" s="6"/>
-      <c r="M16" s="69">
+      <c r="M16" s="22">
         <v>0.9623529412</v>
       </c>
       <c r="N16" s="6"/>
-      <c r="O16" s="69">
+      <c r="O16" s="22">
         <v>0.9976498237</v>
       </c>
       <c r="P16" s="6"/>
-      <c r="Q16" s="69">
+      <c r="Q16" s="22">
         <v>0.9670588235</v>
       </c>
       <c r="R16" s="6"/>
-      <c r="S16" s="69">
+      <c r="S16" s="22">
         <v>0.9976470588</v>
       </c>
       <c r="T16" s="6"/>
-      <c r="U16" s="69">
+      <c r="U16" s="22">
         <v>0.9507042254</v>
       </c>
     </row>
@@ -5367,7 +5356,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:U24">
-    <sortState ref="A5:U24">
+    <sortState ref="A4:U24">
       <sortCondition ref="I4" descending="1"/>
     </sortState>
   </autoFilter>
@@ -5426,7 +5415,7 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.1" customHeight="1" spans="1:21">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>77</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -5591,49 +5580,47 @@
       <c r="X4" s="43"/>
     </row>
     <row r="5" s="51" customFormat="1" spans="1:21">
-      <c r="A5" s="54">
+      <c r="A5" s="53">
         <v>6</v>
       </c>
-      <c r="B5" s="55">
+      <c r="B5" s="54">
         <v>200</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="68">
+      <c r="D5" s="55"/>
+      <c r="E5" s="54">
         <v>0.9764890282</v>
       </c>
-      <c r="F5" s="68">
+      <c r="F5" s="54">
         <v>304</v>
       </c>
-      <c r="G5" s="68">
+      <c r="G5" s="54">
         <v>0.9559748428</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="68">
+      <c r="I5" s="54">
         <v>0.9647371813</v>
       </c>
-      <c r="J5" s="56"/>
-      <c r="K5" s="68">
+      <c r="J5" s="55"/>
+      <c r="K5" s="54">
         <v>0.9800235018</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="68">
+      <c r="L5" s="55"/>
+      <c r="M5" s="54">
         <v>0.9647058824</v>
       </c>
-      <c r="N5" s="56"/>
-      <c r="O5" s="68">
+      <c r="N5" s="55"/>
+      <c r="O5" s="54">
         <v>0.9764982374</v>
       </c>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="68">
+      <c r="P5" s="55"/>
+      <c r="Q5" s="54">
         <v>0.9694117647</v>
       </c>
-      <c r="R5" s="56"/>
-      <c r="S5" s="68">
+      <c r="R5" s="55"/>
+      <c r="S5" s="54">
         <v>0.9764705882</v>
       </c>
-      <c r="T5" s="56"/>
-      <c r="U5" s="68">
+      <c r="T5" s="55"/>
+      <c r="U5" s="54">
         <v>0.9600938967</v>
       </c>
     </row>
@@ -5646,41 +5633,41 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="69">
+      <c r="E6" s="22">
         <v>0.9764890282</v>
       </c>
-      <c r="F6" s="69">
+      <c r="F6" s="22">
         <v>303</v>
       </c>
-      <c r="G6" s="69">
+      <c r="G6" s="22">
         <v>0.9528301887</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="69">
+      <c r="I6" s="22">
         <v>0.9647371813</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="69">
+      <c r="K6" s="22">
         <v>0.9800235018</v>
       </c>
       <c r="L6" s="6"/>
-      <c r="M6" s="69">
+      <c r="M6" s="22">
         <v>0.9647058824</v>
       </c>
       <c r="N6" s="6"/>
-      <c r="O6" s="69">
+      <c r="O6" s="22">
         <v>0.9764982374</v>
       </c>
       <c r="P6" s="6"/>
-      <c r="Q6" s="69">
+      <c r="Q6" s="22">
         <v>0.9694117647</v>
       </c>
       <c r="R6" s="6"/>
-      <c r="S6" s="69">
+      <c r="S6" s="22">
         <v>0.9764705882</v>
       </c>
       <c r="T6" s="6"/>
-      <c r="U6" s="69">
+      <c r="U6" s="22">
         <v>0.9600938967</v>
       </c>
     </row>
@@ -5693,41 +5680,41 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="69">
+      <c r="E7" s="22">
         <v>0.9764890282</v>
       </c>
-      <c r="F7" s="69">
+      <c r="F7" s="22">
         <v>303</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G7" s="22">
         <v>0.9528301887</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="69">
+      <c r="I7" s="22">
         <v>0.9647371813</v>
       </c>
       <c r="J7" s="6"/>
-      <c r="K7" s="69">
+      <c r="K7" s="22">
         <v>0.9800235018</v>
       </c>
       <c r="L7" s="6"/>
-      <c r="M7" s="69">
+      <c r="M7" s="22">
         <v>0.9647058824</v>
       </c>
       <c r="N7" s="6"/>
-      <c r="O7" s="69">
+      <c r="O7" s="22">
         <v>0.9764982374</v>
       </c>
       <c r="P7" s="6"/>
-      <c r="Q7" s="69">
+      <c r="Q7" s="22">
         <v>0.9694117647</v>
       </c>
       <c r="R7" s="6"/>
-      <c r="S7" s="69">
+      <c r="S7" s="22">
         <v>0.9764705882</v>
       </c>
       <c r="T7" s="6"/>
-      <c r="U7" s="69">
+      <c r="U7" s="22">
         <v>0.9600938967</v>
       </c>
       <c r="W7" s="1"/>
@@ -5745,40 +5732,40 @@
         <v>1000</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="69">
+      <c r="E8" s="22">
         <v>0.9764890282</v>
       </c>
-      <c r="F8" s="69">
+      <c r="F8" s="22">
         <v>303</v>
       </c>
-      <c r="G8" s="69">
+      <c r="G8" s="22">
         <v>0.9528301887</v>
       </c>
-      <c r="I8" s="69">
+      <c r="I8" s="22">
         <v>0.9647371813</v>
       </c>
       <c r="J8" s="6"/>
-      <c r="K8" s="69">
+      <c r="K8" s="22">
         <v>0.9800235018</v>
       </c>
       <c r="L8" s="6"/>
-      <c r="M8" s="69">
+      <c r="M8" s="22">
         <v>0.9647058824</v>
       </c>
       <c r="N8" s="6"/>
-      <c r="O8" s="69">
+      <c r="O8" s="22">
         <v>0.9764982374</v>
       </c>
       <c r="P8" s="6"/>
-      <c r="Q8" s="69">
+      <c r="Q8" s="22">
         <v>0.9694117647</v>
       </c>
       <c r="R8" s="6"/>
-      <c r="S8" s="69">
+      <c r="S8" s="22">
         <v>0.9764705882</v>
       </c>
       <c r="T8" s="6"/>
-      <c r="U8" s="69">
+      <c r="U8" s="22">
         <v>0.9600938967</v>
       </c>
     </row>
@@ -5791,41 +5778,41 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="69">
+      <c r="E9" s="22">
         <v>0.9764890282</v>
       </c>
-      <c r="F9" s="69">
+      <c r="F9" s="22">
         <v>303</v>
       </c>
-      <c r="G9" s="69">
+      <c r="G9" s="22">
         <v>0.9528301887</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="69">
+      <c r="I9" s="22">
         <v>0.9647371813</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="69">
+      <c r="K9" s="22">
         <v>0.9800235018</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="69">
+      <c r="M9" s="22">
         <v>0.9647058824</v>
       </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="69">
+      <c r="O9" s="22">
         <v>0.9764982374</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="69">
+      <c r="Q9" s="22">
         <v>0.9694117647</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="69">
+      <c r="S9" s="22">
         <v>0.9764705882</v>
       </c>
       <c r="T9" s="6"/>
-      <c r="U9" s="69">
+      <c r="U9" s="22">
         <v>0.9600938967</v>
       </c>
       <c r="W9" s="1"/>
@@ -5843,40 +5830,40 @@
         <v>3000</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="69">
+      <c r="E10" s="22">
         <v>0.9764890282</v>
       </c>
-      <c r="F10" s="69">
+      <c r="F10" s="22">
         <v>303</v>
       </c>
-      <c r="G10" s="69">
+      <c r="G10" s="22">
         <v>0.9528301887</v>
       </c>
-      <c r="I10" s="69">
+      <c r="I10" s="22">
         <v>0.9647371813</v>
       </c>
       <c r="J10" s="6"/>
-      <c r="K10" s="69">
+      <c r="K10" s="22">
         <v>0.9800235018</v>
       </c>
       <c r="L10" s="6"/>
-      <c r="M10" s="69">
+      <c r="M10" s="22">
         <v>0.9647058824</v>
       </c>
       <c r="N10" s="6"/>
-      <c r="O10" s="69">
+      <c r="O10" s="22">
         <v>0.9764982374</v>
       </c>
       <c r="P10" s="6"/>
-      <c r="Q10" s="69">
+      <c r="Q10" s="22">
         <v>0.9694117647</v>
       </c>
       <c r="R10" s="6"/>
-      <c r="S10" s="69">
+      <c r="S10" s="22">
         <v>0.9764705882</v>
       </c>
       <c r="T10" s="6"/>
-      <c r="U10" s="69">
+      <c r="U10" s="22">
         <v>0.9600938967</v>
       </c>
       <c r="V10"/>
@@ -5888,43 +5875,41 @@
       <c r="B11" s="23">
         <v>5000</v>
       </c>
-      <c r="C11" s="1"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="69">
+      <c r="E11" s="22">
         <v>0.9764890282</v>
       </c>
-      <c r="F11" s="69">
+      <c r="F11" s="22">
         <v>303</v>
       </c>
-      <c r="G11" s="69">
+      <c r="G11" s="22">
         <v>0.9528301887</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="69">
+      <c r="I11" s="22">
         <v>0.9647371813</v>
       </c>
       <c r="J11" s="6"/>
-      <c r="K11" s="69">
+      <c r="K11" s="22">
         <v>0.9800235018</v>
       </c>
       <c r="L11" s="6"/>
-      <c r="M11" s="69">
+      <c r="M11" s="22">
         <v>0.9647058824</v>
       </c>
       <c r="N11" s="6"/>
-      <c r="O11" s="69">
+      <c r="O11" s="22">
         <v>0.9764982374</v>
       </c>
       <c r="P11" s="6"/>
-      <c r="Q11" s="69">
+      <c r="Q11" s="22">
         <v>0.9694117647</v>
       </c>
       <c r="R11" s="6"/>
-      <c r="S11" s="69">
+      <c r="S11" s="22">
         <v>0.9764705882</v>
       </c>
       <c r="T11" s="6"/>
-      <c r="U11" s="69">
+      <c r="U11" s="22">
         <v>0.9600938967</v>
       </c>
     </row>
@@ -5935,43 +5920,42 @@
       <c r="B12" s="22">
         <v>100</v>
       </c>
-      <c r="C12" s="1"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="69">
+      <c r="E12" s="22">
         <v>0.9764890282</v>
       </c>
-      <c r="F12" s="69">
+      <c r="F12" s="22">
         <v>304</v>
       </c>
-      <c r="G12" s="69">
+      <c r="G12" s="22">
         <v>0.9559748428</v>
       </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="69">
+      <c r="I12" s="22">
         <v>0.9639547086</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="69">
+      <c r="K12" s="22">
         <v>0.9800235018</v>
       </c>
       <c r="L12" s="6"/>
-      <c r="M12" s="69">
+      <c r="M12" s="22">
         <v>0.9647058824</v>
       </c>
       <c r="N12" s="6"/>
-      <c r="O12" s="69">
+      <c r="O12" s="22">
         <v>0.9764982374</v>
       </c>
       <c r="P12" s="6"/>
-      <c r="Q12" s="69">
+      <c r="Q12" s="22">
         <v>0.9694117647</v>
       </c>
       <c r="R12" s="6"/>
-      <c r="S12" s="69">
+      <c r="S12" s="22">
         <v>0.9764705882</v>
       </c>
       <c r="T12" s="6"/>
-      <c r="U12" s="69">
+      <c r="U12" s="22">
         <v>0.9577464789</v>
       </c>
     </row>
@@ -5982,43 +5966,41 @@
       <c r="B13" s="33">
         <v>30</v>
       </c>
-      <c r="C13" s="1"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="69">
+      <c r="E13" s="22">
         <v>0.9764890282</v>
       </c>
-      <c r="F13" s="69">
+      <c r="F13" s="22">
         <v>304</v>
       </c>
-      <c r="G13" s="69">
+      <c r="G13" s="22">
         <v>0.9559748428</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="69">
+      <c r="I13" s="22">
         <v>0.9639528675</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="69">
+      <c r="K13" s="22">
         <v>0.9800235018</v>
       </c>
       <c r="L13" s="6"/>
-      <c r="M13" s="69">
+      <c r="M13" s="22">
         <v>0.9623529412</v>
       </c>
       <c r="N13" s="6"/>
-      <c r="O13" s="69">
+      <c r="O13" s="22">
         <v>0.9764982374</v>
       </c>
       <c r="P13" s="6"/>
-      <c r="Q13" s="69">
+      <c r="Q13" s="22">
         <v>0.9694117647</v>
       </c>
       <c r="R13" s="6"/>
-      <c r="S13" s="69">
+      <c r="S13" s="22">
         <v>0.9764705882</v>
       </c>
       <c r="T13" s="6"/>
-      <c r="U13" s="69">
+      <c r="U13" s="22">
         <v>0.9600938967</v>
       </c>
     </row>
@@ -6029,137 +6011,135 @@
       <c r="B14" s="33">
         <v>20</v>
       </c>
-      <c r="C14" s="1"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="69">
+      <c r="E14" s="22">
         <v>0.9764890282</v>
       </c>
-      <c r="F14" s="69">
+      <c r="F14" s="22">
         <v>304</v>
       </c>
-      <c r="G14" s="69">
+      <c r="G14" s="22">
         <v>0.9559748428</v>
       </c>
-      <c r="H14" s="66"/>
-      <c r="I14" s="69">
+      <c r="H14" s="61"/>
+      <c r="I14" s="22">
         <v>0.9631685538</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="69">
+      <c r="K14" s="22">
         <v>0.9800235018</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="69">
+      <c r="M14" s="22">
         <v>0.96</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="69">
+      <c r="O14" s="22">
         <v>0.9753231492</v>
       </c>
       <c r="P14" s="6"/>
-      <c r="Q14" s="69">
+      <c r="Q14" s="22">
         <v>0.9694117647</v>
       </c>
       <c r="R14" s="6"/>
-      <c r="S14" s="69">
+      <c r="S14" s="22">
         <v>0.9764705882</v>
       </c>
       <c r="T14" s="6"/>
-      <c r="U14" s="69">
+      <c r="U14" s="22">
         <v>0.9600938967</v>
       </c>
     </row>
-    <row r="15" s="52" customFormat="1" spans="1:21">
-      <c r="A15" s="57">
+    <row r="15" s="1" customFormat="1" spans="1:21">
+      <c r="A15" s="56">
         <v>4</v>
       </c>
-      <c r="B15" s="58">
+      <c r="B15" s="57">
         <v>50</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="70">
+      <c r="C15" s="58"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="33">
         <v>0.9764890282</v>
       </c>
-      <c r="F15" s="70">
+      <c r="F15" s="33">
         <v>304</v>
       </c>
-      <c r="G15" s="70">
+      <c r="G15" s="33">
         <v>0.9559748428</v>
       </c>
-      <c r="H15" s="59"/>
-      <c r="I15" s="70">
+      <c r="H15" s="58"/>
+      <c r="I15" s="33">
         <v>0.9631685538</v>
       </c>
-      <c r="J15" s="60"/>
-      <c r="K15" s="70">
+      <c r="J15" s="59"/>
+      <c r="K15" s="33">
         <v>0.9800235018</v>
       </c>
-      <c r="L15" s="60"/>
-      <c r="M15" s="70">
+      <c r="L15" s="59"/>
+      <c r="M15" s="33">
         <v>0.9647058824</v>
       </c>
-      <c r="N15" s="60"/>
-      <c r="O15" s="70">
+      <c r="N15" s="59"/>
+      <c r="O15" s="33">
         <v>0.9764982374</v>
       </c>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="70">
+      <c r="P15" s="59"/>
+      <c r="Q15" s="33">
         <v>0.9647058824</v>
       </c>
-      <c r="R15" s="60"/>
-      <c r="S15" s="70">
+      <c r="R15" s="59"/>
+      <c r="S15" s="33">
         <v>0.9764705882</v>
       </c>
-      <c r="T15" s="60"/>
-      <c r="U15" s="70">
+      <c r="T15" s="59"/>
+      <c r="U15" s="33">
         <v>0.9600938967</v>
       </c>
     </row>
-    <row r="16" s="52" customFormat="1" ht="15.75" spans="1:21">
-      <c r="A16" s="61">
+    <row r="16" s="1" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A16" s="5">
         <v>1</v>
       </c>
-      <c r="B16" s="62">
+      <c r="B16" s="33">
         <v>10</v>
       </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="69">
+      <c r="D16" s="6"/>
+      <c r="E16" s="22">
         <v>0.9764890282</v>
       </c>
-      <c r="F16" s="69">
+      <c r="F16" s="22">
         <v>303</v>
       </c>
-      <c r="G16" s="69">
+      <c r="G16" s="22">
         <v>0.9528301887</v>
       </c>
-      <c r="H16" s="71"/>
-      <c r="I16" s="69">
+      <c r="H16" s="61"/>
+      <c r="I16" s="22">
         <v>0.9616017675</v>
       </c>
-      <c r="J16" s="73"/>
-      <c r="K16" s="69">
+      <c r="J16" s="39"/>
+      <c r="K16" s="22">
         <v>0.9800235018</v>
       </c>
-      <c r="L16" s="74"/>
-      <c r="M16" s="69">
+      <c r="L16" s="40"/>
+      <c r="M16" s="22">
         <v>0.9623529412</v>
       </c>
-      <c r="N16" s="74"/>
-      <c r="O16" s="69">
+      <c r="N16" s="40"/>
+      <c r="O16" s="22">
         <v>0.9753231492</v>
       </c>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="69">
+      <c r="P16" s="40"/>
+      <c r="Q16" s="22">
         <v>0.9647058824</v>
       </c>
-      <c r="R16" s="74"/>
-      <c r="S16" s="69">
+      <c r="R16" s="40"/>
+      <c r="S16" s="22">
         <v>0.9764705882</v>
       </c>
-      <c r="T16" s="74"/>
-      <c r="U16" s="69">
+      <c r="T16" s="40"/>
+      <c r="U16" s="22">
         <v>0.9577464789</v>
       </c>
     </row>
@@ -6199,7 +6179,7 @@
       </c>
       <c r="D19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="72"/>
+      <c r="G19" s="63"/>
       <c r="H19" s="6"/>
       <c r="J19" s="6"/>
       <c r="L19" s="6"/>
@@ -6225,54 +6205,54 @@
       <c r="U20" s="45"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:21">
-      <c r="A21" s="65">
+      <c r="A21" s="60">
         <v>17</v>
       </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="75"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="62"/>
+      <c r="U21" s="64"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:21">
-      <c r="A22" s="65">
+      <c r="A22" s="60">
         <v>18</v>
       </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="75"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="64"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:21">
       <c r="A23" s="5">
@@ -6309,7 +6289,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:U24">
-    <sortState ref="A5:U24">
+    <sortState ref="A4:U24">
       <sortCondition ref="I4" descending="1"/>
     </sortState>
   </autoFilter>
